--- a/export/gas.xlsx
+++ b/export/gas.xlsx
@@ -87,6 +87,6162 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Visc</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Modeling Data'!$G$2:$G$1002</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1001"/>
+                <c:pt idx="0">
+                  <c:v>3.7489999999973378E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7484029539680552E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7482110121445089E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7480189810423781E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7478268586910168E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7476346430365126E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7474423319805439E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7472499233637269E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.747057414943411E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7468648044269859E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7466720894385741E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7464792675412362E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7462863362036636E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7460932928279345E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7459001347384113E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.7457068591706388E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7455134632602416E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7453199440651286E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.7451262985377376E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.7449325235416886E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.7447386158295792E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.744544572048536E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.744350388734663E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.744156062307491E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.7439615890755285E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.7437669652029548E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.7435721867429272E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7433772495987228E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.7431821495348405E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.7429868821770018E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7427914429899456E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.7425958272774285E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.7424000301877758E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.742204046680575E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.742007871537778E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.7418114993581497E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.7416149245295127E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.741418141262054E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.7412211435161602E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.741023925052378E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.7408264793814539E-5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.7406287997754362E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.740430879245471E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.7402327105362509E-5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.7400342861204638E-5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.739835598154384E-5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.739636638511179E-5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.739437398719847E-5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.7392378699874218E-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.7390380431601145E-5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.7388379087066603E-5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.7386374567183189E-5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.7384366768755672E-5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.7382355584092419E-5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.7380340901393971E-5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.7378322603698333E-5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.7376300569380572E-5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.7374274671486685E-5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.7372244777567065E-5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.7370210749287924E-5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.736817244237578E-5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.7366129706062345E-5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.7364082382973507E-5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.7362030308352168E-5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.735997331016927E-5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.7357911208457661E-5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.7355843814701473E-5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.7353770931947139E-5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.7351692353471133E-5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.734960786300201E-5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.734751723394325E-5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.7345420228318549E-5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.7343316596938347E-5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.7341206077901035E-5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.7339088396592945E-5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.7336963264300582E-5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.7334830377655503E-5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.7332689417801657E-5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.7330540049285155E-5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.7328381918999565E-5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.732621465535324E-5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.7324037866659499E-5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.7321851140248441E-5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.7319654040857131E-5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.7317446109186303E-5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.7315226860457074E-5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.7312995782579073E-5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.7310752334374087E-5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.7308495943411124E-5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.7306226004230059E-5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.730394187551056E-5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.7301642878129204E-5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.7299328292050848E-5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.7296997353497563E-5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.7294649251895517E-5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.7292283126100223E-5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.7289898061232396E-5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.7287493083959511E-5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.7285067158443486E-5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.7282619181677745E-5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.7280147977769573E-5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.7277652292611041E-5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.7275130787495225E-5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.7272582032454871E-5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.7270004498657361E-5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.726739655024458E-5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.7264756435673174E-5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.7262082277611519E-5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.7259372062448115E-5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.7256623628467711E-5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.7253834652750673E-5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.7251002637184172E-5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.7248124892474976E-5</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.7245198520996503E-5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.7242220397637471E-5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.723918714848562E-5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.7236095127846092E-5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.7232940391818126E-5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.722971867003988E-5</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.7226425333436453E-5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.7223055359192347E-5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3.7219603291060999E-5</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.7216063195788518E-5</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.7212428614319393E-5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.720869250700698E-5</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3.7204847193661461E-5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3.7200884284771529E-5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3.7196794606619843E-5</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3.719256811607341E-5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3.7188193805715031E-5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3.718365959792802E-5</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3.7178952225991324E-5</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3.7174057101019287E-5</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3.7168958163358301E-5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3.7163637714998643E-5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3.7158076234611315E-5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3.7152252168159983E-5</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3.714614169758601E-5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3.7139718482293027E-5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.7132953372542854E-5</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3.7125814093097453E-5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.7118264894497877E-5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3.7110266172868389E-5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3.7101774057468617E-5</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3.709273996865825E-5</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3.7083110151159282E-5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3.7072825191220016E-5</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.7061819530170848E-5</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.7050020995632593E-5</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.7037350378577027E-5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3.7023721097262374E-5</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3.7009039002833255E-5</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3.6993202401358616E-5</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3.6976102384678189E-5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3.6957623591071798E-5</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3.693764553819312E-5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3.6916044694079719E-5</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3.6892697467927338E-5</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3.6867484298819253E-5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3.6840294992679379E-5</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3.681103538877295E-5</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3.6779635310679737E-5</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3.6746057570813395E-5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3.6710307544762788E-5</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3.6672442538021599E-5</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3.6632579880069294E-5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3.6590902467437125E-5</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3.6547660441754726E-5</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3.650316790432262E-5</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3.6457794082067618E-5</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3.6457896477715135E-5</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3.6457998873529185E-5</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3.6458101271896748E-5</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3.6458203675981959E-5</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3.6458306089837134E-5</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3.6458408515183116E-5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3.6458510954628931E-5</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3.6458613411893825E-5</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3.6458715888254556E-5</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3.6458818386264635E-5</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3.6458920909254733E-5</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3.6459023458390583E-5</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3.6459126036003653E-5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3.6459228644147856E-5</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3.6459331286209373E-5</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>3.6459433963076382E-5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3.6459536676858306E-5</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3.6459639430774793E-5</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3.6459742225658509E-5</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3.6459845063563368E-5</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3.6459947947431459E-5</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3.6460050878206474E-5</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3.6460153857720279E-5</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3.6460256889081499E-5</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3.6460359972900758E-5</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3.6460463111176455E-5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3.6460566305684949E-5</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>3.6460669559257308E-5</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>3.6460772872726199E-5</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3.6460876247812468E-5</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>3.6460979687347184E-5</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>3.647582048027509E-5</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>3.6490277862621934E-5</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>3.6504360723443874E-5</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>3.6518077768499246E-5</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>3.6531437467679506E-5</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>3.6544448116737627E-5</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>3.6557117813085238E-5</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>3.6569454435864124E-5</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>3.6581465702567595E-5</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>3.6593159123410324E-5</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>3.6604542054785583E-5</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>3.6615621678504073E-5</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>3.662640500579073E-5</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>3.6636898860464839E-5</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3.664710990675113E-5</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3.6657044692967045E-5</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3.6666709572030776E-5</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>3.6676110767519532E-5</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3.668525433797587E-5</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>3.6694146218541057E-5</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3.6702792204856838E-5</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>3.6711197956174058E-5</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>3.6719368982418565E-5</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>3.6727310697814985E-5</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>3.673502835688236E-5</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>3.674252709257031E-5</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>3.674981194834448E-5</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>3.6756887820010853E-5</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>3.6763759503899429E-5</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>3.6770431670996029E-5</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>3.6776908910574058E-5</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>3.6783195678513625E-5</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>3.6789296340156152E-5</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>3.6795215159313166E-5</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>3.6800956300597765E-5</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>3.6806523831756088E-5</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>3.6811921715285134E-5</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>3.6817153833024197E-5</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>3.6822223976940016E-5</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>3.6827135850903137E-5</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>3.6831893063471455E-5</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>3.6836499159031977E-5</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>3.6840957581107947E-5</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>3.6845271703167537E-5</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>3.6849444820463706E-5</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>3.685348015236567E-5</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>3.6857380843691168E-5</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>3.6861149959155348E-5</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>3.6864790508184253E-5</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>3.6868305415771463E-5</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>3.6871697547236071E-5</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>3.6874969701672367E-5</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>3.6878124613837215E-5</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>3.6881164955593349E-5</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>3.6884093337075097E-5</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>3.6886912302969144E-5</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>3.6889624350777694E-5</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>3.6892231909668727E-5</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>3.6894737358517116E-5</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>3.6897143021741297E-5</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>3.6899451170191444E-5</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>3.6901664022648273E-5</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>3.6903783747155305E-5</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>3.6905812461796028E-5</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>3.6907752232362423E-5</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>3.6909605085233554E-5</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>3.6911372992665115E-5</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>3.6913057889109702E-5</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>3.6914661657838632E-5</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>3.691618614243275E-5</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>3.6917633144284423E-5</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>3.6919004423707769E-5</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>3.6920301700604785E-5</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>3.6921526655686598E-5</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>3.6922680931195107E-5</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>3.6923766129570712E-5</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>3.6924783821334906E-5</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>3.6925735538650972E-5</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>3.6926622776989326E-5</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>3.692744700134476E-5</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>3.6928209639908172E-5</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>3.6928912089950749E-5</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>3.6929555718212548E-5</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>3.6930141857571819E-5</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>3.6930671811874483E-5</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>3.6931146855267993E-5</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>3.6931568232867473E-5</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3.6931937161310824E-5</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>3.6932254829646904E-5</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>3.6932522399779621E-5</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>3.6932741006689973E-5</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>3.6932911760489961E-5</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>3.6933035745478904E-5</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>3.6933114021309166E-5</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>3.693314762337474E-5</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>3.6933137563810448E-5</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>3.6933084831547447E-5</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>3.6932990393090392E-5</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>3.6932855193017033E-5</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>3.6932680154144748E-5</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>3.6932466178807299E-5</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>3.6932214148632792E-5</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>3.6931924924543669E-5</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>3.6931599348977162E-5</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>3.6931238244775066E-5</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>3.6930842416071918E-5</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>3.6930412648683575E-5</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>3.6929949710551302E-5</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>3.6929454352296887E-5</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>3.6928927307278148E-5</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>3.6928369292366092E-5</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>3.6927781008055938E-5</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>3.6927163139022223E-5</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>3.6926516354285344E-5</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>3.692584130776666E-5</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>3.6925138638455035E-5</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>3.6924408970961942E-5</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>3.6923652915521465E-5</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>3.6922871070321772E-5</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>3.6922064016620126E-5</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>3.6921232324349518E-5</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>3.6920376551841105E-5</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>3.691949724160537E-5</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>3.6918594925494652E-5</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>3.6917670125091728E-5</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>3.6916723346491764E-5</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>3.6915755086186497E-5</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>3.6914765831286278E-5</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>3.6913756054024471E-5</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>3.691272621986208E-5</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>3.6911676779605163E-5</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>3.6910608178120086E-5</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>3.6909520848005251E-5</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>3.6908415209813139E-5</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>3.6907291679100229E-5</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>3.6906150657378678E-5</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>3.6904992541664239E-5</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>3.6903817717703902E-5</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>3.6902626560197938E-5</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>3.6901419439905325E-5</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>3.6900196717093436E-5</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>3.6898958741038435E-5</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>3.6897705858407459E-5</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>3.689643840526502E-5</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>3.689515671018162E-5</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>3.6893861091680247E-5</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>3.6892551866174461E-5</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>3.6891229340418885E-5</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>3.6889893814229247E-5</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>3.6888545580593401E-5</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>3.6887184923006799E-5</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>3.6885812124132222E-5</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>3.6884427457528624E-5</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>3.6883031190426685E-5</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>3.6881623584172907E-5</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>3.6880204894007562E-5</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>3.6878775369564298E-5</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>3.6877335254703603E-5</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>3.6875884787790358E-5</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>3.6874424198807265E-5</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>3.6872953718514179E-5</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>3.6871473569455304E-5</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>3.686998396901231E-5</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>3.6868485129903927E-5</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>3.6866977259741862E-5</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>3.6865460561696928E-5</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>3.6863935234165979E-5</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>3.6862401471104977E-5</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>3.6860859462028994E-5</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>3.6859309392289763E-5</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>3.6857751446017772E-5</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>3.6856185797018437E-5</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>3.6854612618320015E-5</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>3.685303207884294E-5</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>3.685144434389942E-5</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>3.6849849574915883E-5</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>3.6848247929766043E-5</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>3.6846639562659877E-5</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>3.6845024624310163E-5</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>3.6843403262154517E-5</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>3.6841775620077843E-5</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>3.6840141842242602E-5</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>3.6838502062708223E-5</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>3.6836856415978225E-5</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>3.6835205033503016E-5</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>3.6833548043624376E-5</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>3.6831885571853018E-5</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>3.6830217740924098E-5</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>3.6828544674016861E-5</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>3.6826866484984677E-5</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>3.6825183288291541E-5</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>3.6823495195792422E-5</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>3.682180231695531E-5</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>3.6820104762191885E-5</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>3.681840263236591E-5</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>3.6816696029728924E-5</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>3.6814985054089977E-5</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>3.681326980287114E-5</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>3.6811550375048796E-5</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>3.6809826860273454E-5</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>3.680809934952789E-5</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>3.6806367931963013E-5</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>3.6804632697950979E-5</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>3.6802893729037667E-5</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>3.680115110826776E-5</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>3.6799404916965095E-5</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>3.6797655234455107E-5</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>3.6795902141839587E-5</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>3.6794145711449566E-5</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>3.6792386017281409E-5</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>3.6790623135385392E-5</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>3.6788857132930008E-5</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>3.6787088079137664E-5</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>3.6785316041620941E-5</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>3.6783541089990823E-5</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>3.6781763285309577E-5</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>3.677998269069338E-5</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>3.6778199371423348E-5</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>3.6776413384120854E-5</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>3.6774624787794252E-5</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>3.6772833640064118E-5</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>3.6771040000771471E-5</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>3.6769243921319639E-5</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>3.6767445455443415E-5</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>3.6765644659431107E-5</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>3.6763841580966794E-5</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>3.6762036270121534E-5</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>3.6760228779741944E-5</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>3.6758419154014899E-5</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>3.6756607439902833E-5</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>3.6754793686810672E-5</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>3.6752977935872178E-5</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>3.6751160230774627E-5</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>3.6749340614317116E-5</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>3.6747519132018791E-5</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>3.6745695821016611E-5</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>3.6743870721223093E-5</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>3.6742043875326313E-5</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>3.6740215317687674E-5</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>3.6738385089385428E-5</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>3.6736553223060131E-5</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>3.6734719754349943E-5</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>3.6732884721724091E-5</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>3.6731048155436152E-5</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>3.6729210088737307E-5</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>3.6727370557931849E-5</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>3.6725529590830863E-5</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>3.6723687218631618E-5</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>3.6721843475306937E-5</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>3.6719998386780528E-5</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>3.6702367262941848E-5</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>3.6685279315218366E-5</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>3.6668708200127131E-5</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>3.6652629089362065E-5</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>3.6637019028895601E-5</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>3.6621856170426792E-5</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>3.6607120293297157E-5</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>3.659279209416999E-5</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>3.6578853552571289E-5</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>3.6565287965528714E-5</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>3.655207891656298E-5</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>3.6539211573094477E-5</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>3.6526671668257737E-5</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>3.6514445474422619E-5</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>3.6502520491810131E-5</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>3.649088464813266E-5</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>3.6479526394406214E-5</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>3.6468434896963497E-5</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>3.6457599878692015E-5</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>3.6447011689200171E-5</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>3.6436660951821853E-5</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>3.6426538857825541E-5</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>3.641663712733445E-5</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>3.6406947684364255E-5</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>3.6397463029747001E-5</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>3.638817583034859E-5</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>3.6379079187576213E-5</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>3.6370166520638403E-5</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>3.636143163487926E-5</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>3.6352868442335318E-5</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>3.63444712114247E-5</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>3.633623454463164E-5</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>3.6328153037057387E-5</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>3.6320221834917898E-5</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>3.6312436056007424E-5</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>3.6304791101615663E-5</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>3.6297282639152773E-5</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>3.6289906294284524E-5</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>3.6282658161579384E-5</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>3.6275534278984445E-5</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>3.626853091404092E-5</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>3.6261644482171729E-5</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>3.625487160646701E-5</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>3.6248208908407076E-5</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>3.6241653205704161E-5</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>3.6235201437251341E-5</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>3.6228850720354533E-5</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>3.6222598155666308E-5</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>3.6216441013370293E-5</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>3.6210376723300186E-5</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>3.6217106057723214E-5</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>3.6223660538847735E-5</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>3.6230043734764017E-5</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>3.6236259139510452E-5</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>3.6242310162304392E-5</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>3.6248200166399958E-5</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>3.62539324211264E-5</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>3.6259510128811012E-5</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>3.626493644859341E-5</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>3.627021446245271E-5</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>3.6275347178316153E-5</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>3.6280337552707653E-5</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>3.6285188481199881E-5</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>3.6289902799524487E-5</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>3.6294483284959878E-5</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>3.6298932648226589E-5</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>3.6303253562852689E-5</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>3.6307448629091521E-5</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>3.6311520402898534E-5</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>3.6315471387604603E-5</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>3.6319304034915234E-5</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>3.632302074629834E-5</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>3.6326623873705888E-5</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>3.6330115713745226E-5</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>3.6333498530272124E-5</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>3.6336774526801729E-5</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>3.6339945868602008E-5</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>3.6343014676587515E-5</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>3.6345983028263085E-5</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>3.6348852958556499E-5</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>3.6351626455044528E-5</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>3.6354305475994053E-5</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>3.6356891928768231E-5</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>3.6359387692141976E-5</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>3.6361794596428965E-5</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>3.6364114439524364E-5</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>3.6366348982741492E-5</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>3.6368499951422439E-5</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>3.6370569035604206E-5</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>3.6372557890906876E-5</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>3.6374468139088734E-5</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>3.6376301365215191E-5</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>3.6378059129649198E-5</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>3.637974295345181E-5</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>3.6381354333925309E-5</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>3.6382894731123994E-5</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>3.6384365578623346E-5</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>3.6385768283908604E-5</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>3.6387104219715027E-5</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>3.6388374734130924E-5</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>3.6389581147544536E-5</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>3.6390724751367287E-5</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>3.6391806815472272E-5</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>3.6392828581421899E-5</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>3.6393791265632025E-5</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>3.6394696057873155E-5</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>3.6395544127654222E-5</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>3.6396336617117164E-5</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>3.6397074648586436E-5</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>3.6397759318407275E-5</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>3.6398391703718058E-5</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>3.6398972857010214E-5</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>3.6399503810902178E-5</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>3.6399985576973659E-5</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>3.640041914632075E-5</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>3.6400805490055532E-5</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>3.6401145559528114E-5</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>3.6401440286770725E-5</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>3.6401690584997315E-5</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>3.6401897348881107E-5</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>3.6402061455109713E-5</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>3.6402183762329621E-5</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>3.640226511197886E-5</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>3.6402306328675582E-5</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>3.6402308220107038E-5</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>3.6402271577806733E-5</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>3.6402197177098916E-5</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>3.6402085777931248E-5</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>3.6401938124541733E-5</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>3.640175494645792E-5</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>3.6401536957941794E-5</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>3.6401284859655103E-5</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>3.6400999337660167E-5</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>3.6400681063419871E-5</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>3.6400330696240157E-5</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>3.6399948881382649E-5</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>3.6399536251119358E-5</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>3.639909342489922E-5</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>3.6398621009736676E-5</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>3.6398119599378997E-5</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>3.639758977752594E-5</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>3.6397032115054184E-5</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>3.6396447171405111E-5</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>3.6395835494640316E-5</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>3.6395197621941211E-5</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>3.6394534080774754E-5</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>3.6393845385507273E-5</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>3.6393132041290244E-5</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>3.6392394543116602E-5</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>3.6391633376042787E-5</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>3.6390849015188742E-5</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>3.6390041927958361E-5</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>3.6389212568932461E-5</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>3.6388361385142343E-5</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>3.6387488816402858E-5</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>3.6386595290205381E-5</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>3.6385681226991373E-5</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>3.638474704081851E-5</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>3.6383793133476505E-5</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>3.6382819900648844E-5</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>3.6381827731968297E-5</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>3.638081700524376E-5</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>3.6379788094786925E-5</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>3.6378741363141121E-5</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>3.6377677169741052E-5</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>3.6376595862697148E-5</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>3.6375497787122235E-5</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>3.637438327935838E-5</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>3.6373252666421774E-5</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>3.6372106273441229E-5</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>3.6370944414332307E-5</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>3.6369767401345232E-5</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>3.6368575538070491E-5</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>3.6367369119716386E-5</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>3.6366148440214463E-5</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>3.6364913785280617E-5</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>3.6363665434802073E-5</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>3.6362403660450404E-5</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>3.636112873361963E-5</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>3.6359840917654651E-5</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>3.6358540470571299E-5</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>3.6357227642502821E-5</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>3.6355902683915531E-5</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>3.6354565837615205E-5</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>3.6353217341467126E-5</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>3.6351857428451595E-5</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>3.6350486327108023E-5</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>3.6349104258315279E-5</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>3.6347711444228992E-5</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>3.6346308099732827E-5</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>3.6344894435269559E-5</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>3.6343470657340671E-5</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>3.634203696789573E-5</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>3.6340593565109547E-5</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>3.6339140643104617E-5</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>3.6337678392062145E-5</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>3.6336206998277554E-5</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>3.6334726644382531E-5</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>3.633323750940054E-5</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>3.6331739768524773E-5</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>3.6330233593673267E-5</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>3.6328719153155831E-5</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>3.6327196611896095E-5</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>3.6325666131542533E-5</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>3.632412787052397E-5</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>3.6322581984049584E-5</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>3.6321028624108909E-5</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>3.6319467939749384E-5</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>3.6317900077020848E-5</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>3.6316325178975539E-5</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>3.6314743385834625E-5</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>3.6313154834932693E-5</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>3.6311559664159443E-5</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>3.6309958002134213E-5</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>3.6308349978086962E-5</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>3.6306735718694139E-5</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>3.6305115347967654E-5</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>3.6303488987643462E-5</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>3.6301856756792983E-5</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>3.630021877226719E-5</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>3.6298575151694212E-5</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>3.6296926003875907E-5</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>3.629527143861333E-5</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>3.6293611563653627E-5</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>3.6291946484356963E-5</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>3.6290276304085101E-5</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>3.6288601127587583E-5</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>3.6286921050621146E-5</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>3.6285236170441326E-5</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>3.6283546582305259E-5</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>3.6281852383024393E-5</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>3.6280153660583903E-5</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>3.6278450504689808E-5</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>3.6276743003105238E-5</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>3.6275031242039013E-5</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>3.627331530919875E-5</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>3.6271595283798863E-5</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>3.6269871246719099E-5</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>3.6268143277395914E-5</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>3.6266411457153147E-5</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>3.626467585848836E-5</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>3.6262936556175074E-5</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>3.6261193623321475E-5</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>3.6259447135200684E-5</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>3.6257697158426083E-5</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>3.6255943761831499E-5</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>3.6254187016471207E-5</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>3.625242698479525E-5</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>3.6250663731585142E-5</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>3.6248897320234619E-5</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>3.6247127816635416E-5</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>3.6245355278019531E-5</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>3.6243579764061451E-5</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>3.6241801336989177E-5</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>3.6240020050315458E-5</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>3.6238235960328602E-5</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>3.6236449125703896E-5</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>3.623465959662342E-5</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>3.6232867426044812E-5</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>3.6231072669257181E-5</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>3.6229275373500514E-5</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>3.6227475588290758E-5</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>3.6225673366196975E-5</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>3.6223868751128485E-5</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>3.622206178999221E-5</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>3.6220252532248587E-5</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>3.6218441019086889E-5</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>3.6216627294527459E-5</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>3.6214811405366198E-5</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>3.6212993390183357E-5</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>3.6211173290390253E-5</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>3.6209351150284785E-5</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>3.6207527005782669E-5</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>3.6205700899683002E-5</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>3.6203872866347186E-5</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>3.6202042943189738E-5</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>3.6200211170622776E-5</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>3.6198377580731744E-5</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>3.6196542208821736E-5</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>3.61947050929734E-5</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>3.6192866263329293E-5</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>3.6191025756748818E-5</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>3.6189183601820218E-5</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>3.6187339830406895E-5</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>3.6185494477314339E-5</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>3.6183647569409949E-5</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>3.6181799136558723E-5</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>3.6179949211845308E-5</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>3.6178097820138699E-5</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>3.6176244993468831E-5</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>3.6174390755483454E-5</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>3.6172535133216499E-5</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>3.6170678157032565E-5</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>3.6168819848914069E-5</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>3.6166960238226409E-5</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>3.61650993459528E-5</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>3.6163237200292908E-5</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>3.6161373821452791E-5</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>3.6159509232691622E-5</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>3.6157643460932309E-5</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>3.6155776524715577E-5</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>3.6153908450020644E-5</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>3.6152039254555568E-5</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>3.6150168959470097E-5</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>3.6148297589411182E-5</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>3.6146425160754614E-5</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>3.6144551697314675E-5</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>3.6142677214745511E-5</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>3.6140801735917716E-5</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>3.61389252758193E-5</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>3.6137047852768944E-5</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>3.6135169488527019E-5</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>3.6133290197026824E-5</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>3.6131409999251574E-5</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>3.61295289083019E-5</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>3.6127646944550396E-5</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>3.6125764120431558E-5</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>3.6123880451877088E-5</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>3.6121995958315889E-5</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>3.6120110651238768E-5</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>3.6118224549408495E-5</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>3.6116337663594233E-5</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>3.6114450012114663E-5</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>3.6112561605128324E-5</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>3.6110672460287763E-5</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>3.610878258725192E-5</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>3.610689199928796E-5</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>3.6105000713326785E-5</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>3.6103108738139156E-5</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>3.6101216090100863E-5</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>3.6099322777538578E-5</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>3.6097428816272981E-5</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>3.6095534214186653E-5</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>3.6093638986600673E-5</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>3.6091743140842514E-5</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>3.6089846688069915E-5</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>3.6087949642937822E-5</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>3.6086052012218595E-5</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>3.6084153810067576E-5</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>3.6082255042757527E-5</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>3.6080355724277258E-5</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>3.6078455860344416E-5</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>3.6076555464448212E-5</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>3.6074654542139761E-5</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>3.6072753106464184E-5</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>3.6070851162472994E-5</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>3.6068948718992466E-5</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>3.6067045788679142E-5</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>3.6065142375973913E-5</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>3.6063238493200256E-5</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>3.6061334144410484E-5</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>3.6059429341650517E-5</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>3.6057524088695114E-5</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>3.6055618397146105E-5</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>3.6053712270556204E-5</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>3.6051805720138663E-5</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>3.6049898749279663E-5</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>3.6047991368859389E-5</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>3.6046083581875443E-5</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>3.6044175398985967E-5</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>3.6042266822911007E-5</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>3.604035786414217E-5</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>3.6038448525010924E-5</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>3.6036538811845542E-5</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>3.6034628734693541E-5</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>3.6032718295553323E-5</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>3.6030807504250362E-5</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>3.6028896362561014E-5</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>3.6026984880088708E-5</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>3.602507305849878E-5</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>3.6023160906950569E-5</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>3.6021248426942876E-5</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>3.6019335627524018E-5</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>3.6017422509915242E-5</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>3.601550908294282E-5</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>3.6013595347661465E-5</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>3.6011681312675403E-5</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>3.6009766978761792E-5</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>3.6007852354524861E-5</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>3.6005937440408697E-5</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>3.6004022244906508E-5</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>3.6002106768240338E-5</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>3.6000191018681349E-5</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>3.5998274996451585E-5</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>3.599635870948914E-5</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>3.5994442157794015E-5</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>3.5992525349304305E-5</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>3.5990608283908987E-5</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>3.5988690965327308E-5</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>3.5986773401164296E-5</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>3.5984855591086884E-5</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>3.5982937542589077E-5</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>3.5981019255171276E-5</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>3.597910073610544E-5</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>3.5977181984836459E-5</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>3.597526300846976E-5</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>3.5973343806339209E-5</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>3.597142438543921E-5</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>3.5969504744826075E-5</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>3.596758489154972E-5</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>3.5965664824499921E-5</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>3.5963744550504551E-5</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>3.5961824068508896E-5</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>3.5959903385174297E-5</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>3.5957982499168484E-5</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>3.5956061417208307E-5</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>3.5954140137905988E-5</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>3.5952218667700819E-5</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>3.5950297005205023E-5</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>3.594837515674687E-5</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>3.5946453120772048E-5</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>3.5944530903608829E-5</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>3.5942608503536366E-5</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>3.594068592682742E-5</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>3.5938763171650123E-5</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>3.5936840244166213E-5</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>3.593491714248831E-5</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>3.5932993872722641E-5</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>3.5931070432870804E-5</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>3.5929146828928005E-5</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>3.592722305884033E-5</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>3.592529912843645E-5</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>3.5923375035773475E-5</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>3.5921450786458031E-5</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>3.5919526378491717E-5</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>3.5917601817425648E-5</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>3.5915677101205912E-5</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>3.59137522352726E-5</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>3.591182721751629E-5</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>3.5909902053432585E-5</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>3.5907976740578995E-5</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>3.5906051284562146E-5</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>3.5904125682939547E-5</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>3.590219994109578E-5</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>3.5900274056643866E-5</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>3.5898348034857364E-5</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>3.5896421873238271E-5</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>3.5894495577060148E-5</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>3.5892569143824993E-5</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>3.5890642578750853E-5</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>3.5888715879117683E-5</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>3.5886789050254553E-5</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>3.5884862089385905E-5</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>3.5882935001674277E-5</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>3.5881007784399621E-5</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>3.5879080442613454E-5</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>3.5877152973540216E-5</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>3.5875225382286935E-5</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>3.587329766596703E-5</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>3.5871369829576505E-5</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>3.5869441870284291E-5</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>3.586751379297537E-5</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>3.5865585594818672E-5</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>3.5863657280699179E-5</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>3.5861728847674801E-5</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>3.5859800300519495E-5</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>3.5857871636402194E-5</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>3.5855942859985834E-5</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>3.5854013968383835E-5</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>3.5852084966314646E-5</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>3.5850155854666443E-5</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>3.5848226630330604E-5</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>3.5846297298025576E-5</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>3.5844367854587222E-5</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>3.5842438304789503E-5</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>3.5840508645468283E-5</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>3.583857888139752E-5</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>3.5836649009191035E-5</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>3.5834719033733808E-5</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>3.583278895163966E-5</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>3.5830858767571527E-5</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>3.5828928478365274E-5</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>3.5826998088517303E-5</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>3.5825067594807969E-5</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>3.5823137001789185E-5</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>3.5821206306130282E-5</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>3.5819275512494197E-5</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>3.581734461743924E-5</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>3.5815413625572834E-5</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>3.5813482533453289E-5</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>3.581155134563252E-5</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>3.5809620058724345E-5</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>3.5807688677225169E-5</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>3.5805757197637789E-5</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>3.580382562456963E-5</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>3.5801893954523489E-5</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>3.579996219194026E-5</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>3.579803033337825E-5</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>3.5796098383222841E-5</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>3.5794166341973632E-5</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>3.5792234206077911E-5</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>3.5790301979976569E-5</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>3.5788369660172403E-5</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>3.5786437251050796E-5</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>3.5784504749003521E-5</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>3.5782572158526982E-5</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>3.5780639475957443E-5</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>3.5778706705735797E-5</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>3.5776773844253817E-5</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>3.5774840895841375E-5</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>3.5772907856945757E-5</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>3.5770974731896832E-5</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>3.5769041517086375E-5</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>3.5767108216788746E-5</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>3.5765174827451229E-5</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>3.5763241353348185E-5</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>3.5761307790815877E-5</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>3.5759374144184175E-5</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>3.5757440409789343E-5</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>3.5755506591905739E-5</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>3.5753572690866431E-5</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>3.5751638702841149E-5</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>3.5749704632215273E-5</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>3.5747770475325069E-5</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>3.5745836236389383E-5</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>3.5743901911633458E-5</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>3.5741967505442673E-5</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>3.5740033013931249E-5</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>3.5738098441484567E-5</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>3.5736163784327868E-5</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>3.5734229046679999E-5</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>3.5732294224766203E-5</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>3.5730359322860838E-5</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>3.5728424337189146E-5</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>3.5726489271969974E-5</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>3.5724554123428565E-5</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>3.5722618895839275E-5</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>3.5720683589257618E-5</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>3.5718748199964345E-5</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>3.5716812732178305E-5</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>3.5714877182013716E-5</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>3.5712941553800448E-5</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>3.5711005843652721E-5</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>3.5709070055733871E-5</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>3.570713418626914E-5</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>3.5705198239477376E-5</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>3.5703262211528308E-5</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>3.5701326106474252E-5</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>3.5699389920595959E-5</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>3.5697453658056766E-5</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>3.5695517314970893E-5</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>3.5693580895501675E-5</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>3.5691644399760136E-5</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>3.5689707823971517E-5</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>3.5687771172243643E-5</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>3.5685834440690734E-5</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>3.5683897633476125E-5</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>3.5681960746714037E-5</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>3.5680023784567805E-5</c:v>
+                </c:pt>
+                <c:pt idx="1000">
+                  <c:v>3.567808674320716E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Modeling Data'!$A$2:$A$1002</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1001"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>979</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>964</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>963</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>962</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>958</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>956</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>953</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>948</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>947</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>942</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>939</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>938</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>929</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>927</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>926</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>924</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>923</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>922</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>914</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>909</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>907</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>906</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>905</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>904</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>899</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>898</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>897</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>895</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>894</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>893</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>892</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>891</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>889</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>887</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>886</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>884</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>883</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>882</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>879</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>877</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>876</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>873</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>872</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>869</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>868</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>866</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>865</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>862</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>859</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>857</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>856</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>853</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>852</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>847</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>842</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>839</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>838</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>834</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>833</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>829</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>826</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>824</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>818</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>815</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>814</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>813</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>812</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>811</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>807</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>788</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>758</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>746</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>742</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>739</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>738</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>723</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>706</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>696</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>693</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>688</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>686</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>673</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>659</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>638</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>632</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>617</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1000">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="155804416"/>
+        <c:axId val="155798528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="155804416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="155798528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="155798528"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="155804416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,7 +6535,7 @@
   <dimension ref="A1:G1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23438,6 +29594,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
